--- a/test/adjust_251006_250515_241125_Battery2030+_CoinCellBattery_Schema_Ontologized_1.1.8_filled.xlsx
+++ b/test/adjust_251006_250515_241125_Battery2030+_CoinCellBattery_Schema_Ontologized_1.1.8_filled.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plnu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plnu\Documents\Repository\BattInfoConverter\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EB51A4-C7E1-485B-8E4F-375412FD1125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ED8C75-8FBF-4FE4-B2C0-F2E7EF35F7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4608" yWindow="2520" windowWidth="34560" windowHeight="18648" xr2:uid="{1A6D523C-FE67-4F3F-AA9B-E9FEE83DA8F2}"/>
+    <workbookView xWindow="924" yWindow="2520" windowWidth="34560" windowHeight="18648" xr2:uid="{1A6D523C-FE67-4F3F-AA9B-E9FEE83DA8F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -2349,7 +2349,7 @@
   <dimension ref="A1:KA150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" zoomScale="127" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -9520,56 +9520,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <FolderType xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <CultureName xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <Leaders xmlns="35345429-01ed-4d83-85b9-6cc21878d784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Leaders>
-    <IsNotebookLocked xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <Invited_Members xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <Math_Settings xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <Has_Leaders_Only_SectionGroup xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <Member_Groups xmlns="35345429-01ed-4d83-85b9-6cc21878d784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Member_Groups>
-    <Distribution_Groups xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <AppVersion xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <Templates xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <NotebookType xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <TeamsChannelId xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <Invited_Leaders xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <Members xmlns="35345429-01ed-4d83-85b9-6cc21878d784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Members>
-    <Owner xmlns="35345429-01ed-4d83-85b9-6cc21878d784">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <LMS_Mappings xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-    <_activity xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9970,20 +9926,62 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <FolderType xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <CultureName xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <Leaders xmlns="35345429-01ed-4d83-85b9-6cc21878d784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Leaders>
+    <IsNotebookLocked xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <Invited_Members xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <Math_Settings xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <Has_Leaders_Only_SectionGroup xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <Member_Groups xmlns="35345429-01ed-4d83-85b9-6cc21878d784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Member_Groups>
+    <Distribution_Groups xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <AppVersion xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <Templates xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <NotebookType xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <TeamsChannelId xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <Invited_Leaders xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <Members xmlns="35345429-01ed-4d83-85b9-6cc21878d784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Members>
+    <Owner xmlns="35345429-01ed-4d83-85b9-6cc21878d784">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <LMS_Mappings xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+    <_activity xmlns="35345429-01ed-4d83-85b9-6cc21878d784" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D89A20-922B-4399-8A99-02ABCC3D1E33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E85C156E-EE0C-426A-92B3-CAF84DB17690}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="35345429-01ed-4d83-85b9-6cc21878d784"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10008,9 +10006,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E85C156E-EE0C-426A-92B3-CAF84DB17690}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D89A20-922B-4399-8A99-02ABCC3D1E33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="35345429-01ed-4d83-85b9-6cc21878d784"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>